--- a/apps/skeleton/design/Test Plan/TestPlan.xlsx
+++ b/apps/skeleton/design/Test Plan/TestPlan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Application Name</t>
   </si>
@@ -100,9 +100,6 @@
     <t>This app was created to allow Monster-UI Users to …</t>
   </si>
   <si>
-    <t>% Link to a document, explaining the requirements to test this application, if it needs some %</t>
-  </si>
-  <si>
     <t>If your app has some weird behavior, try to explain it here, otherwise leave it blank</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>….</t>
+  </si>
+  <si>
+    <t>List the roles here. We only have 3 roles In Monster-UI : Standard Account, Reseller and Superduper. Please specify Reseller/Superduper only if your app has some special edge cases involving a Reseller/Superduper account</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,27 +185,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -225,8 +211,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -369,17 +367,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -395,11 +382,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -410,223 +396,206 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -937,7 +906,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,102 +927,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="13">
+      <c r="C4" s="53"/>
+      <c r="D4" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="26" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="68">
+        <v>1</v>
+      </c>
+      <c r="D11" s="69" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="27">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="7"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="38" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="40" t="s">
@@ -1061,135 +1030,145 @@
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="54"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="15" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="37"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="11"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="62"/>
     </row>
     <row r="16" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="9"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="E17" s="58" t="s">
         <v>36</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>37</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>22</v>
+      </c>
       <c r="J17" s="62"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="27">
+      <c r="C20" s="68">
         <v>1</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="7"/>
+      <c r="D20" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="38" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -1197,102 +1176,91 @@
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="36" t="s">
+      <c r="I21" s="38"/>
+      <c r="J21" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="44"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="15" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="37"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="3:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C24" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E24" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C24" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="71"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="74" t="s">
+      <c r="E25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="9"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:J22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="B6:C6"/>
@@ -1305,11 +1273,13 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:J22"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://github.com/2600hz/monster-ui/blob/master/docs/testRequirements.md"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/apps/skeleton/design/Test Plan/TestPlan.xlsx
+++ b/apps/skeleton/design/Test Plan/TestPlan.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Application Name</t>
   </si>
@@ -64,9 +65,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Test Plan Example</t>
   </si>
   <si>
@@ -118,9 +116,6 @@
     <t>Handling errors when Adding a user</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Try to edit the user and verify the information is valid</t>
   </si>
   <si>
@@ -146,6 +141,12 @@
   </si>
   <si>
     <t>List the roles here. We only have 3 roles In Monster-UI : Standard Account, Reseller and Superduper. Please specify Reseller/Superduper only if your app has some special edge cases involving a Reseller/Superduper account</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -186,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,18 +214,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -290,19 +285,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -319,15 +301,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -385,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -402,203 +375,288 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -905,90 +963,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="38.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="38.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="50" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="11">
+      <c r="C4" s="26"/>
+      <c r="D4" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="25" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1001,140 +1059,143 @@
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="68">
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="49"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="E14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="63" t="s">
+      <c r="I14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="2:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="32" t="str">
+        <f>CHAR(CODE(C14)+1)</f>
+        <v>B</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="62"/>
-    </row>
-    <row r="16" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="31" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="32" t="str">
+        <f t="shared" ref="C16:C17" si="0">CHAR(CODE(C15)+1)</f>
+        <v>C</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C17" s="56" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="62"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="25" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1147,120 +1208,127 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="68">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="34" t="s">
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="24"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="35"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="I22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" spans="3:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="32" t="s">
+      <c r="I23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="32" t="str">
+        <f>CHAR(CODE(C23)+1)</f>
+        <v>B</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="32" t="str">
+        <f>CHAR(CODE(C24)+1)</f>
+        <v>C</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C24" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="62"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="7"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:J22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="B6:C6"/>
@@ -1273,13 +1341,218 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:J22"/>
   </mergeCells>
+  <conditionalFormatting sqref="F14:I17">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",F14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="F">
+      <formula>NOT(ISERROR(SEARCH("F",F14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:I25">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="F">
+      <formula>NOT(ISERROR(SEARCH("F",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{AEC5C22D-E07F-402C-9ADD-EB3C24EB3A2A}">
+            <xm:f>ISNUMBER(MATCH($C1,Sheet2!$B$1:$B$13,0))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="3" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{EDBA27F2-290E-44BA-865B-A789149C5D5F}">
+            <xm:f>ISNUMBER(MATCH($C1,Sheet2!$A$1:$A$13,0))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="8" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C1:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>F14:G17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>F23:G25</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CHAR(CODE(A1)+2)</f>
+        <v>C</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CHAR(CODE(B1)+2)</f>
+        <v>D</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A13" si="0">CHAR(CODE(A2)+2)</f>
+        <v>E</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B13" si="1">CHAR(CODE(B2)+2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Q</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>U</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>W</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/apps/skeleton/design/Test Plan/TestPlan.xlsx
+++ b/apps/skeleton/design/Test Plan/TestPlan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Application Name</t>
   </si>
@@ -399,116 +399,132 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="14">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -557,102 +573,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -964,7 +890,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,62 +911,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="28">
+      <c r="C4" s="37"/>
+      <c r="D4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1074,29 +1000,29 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="14" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1109,90 +1035,91 @@
       <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="18" t="str">
+        <f>IF(LEN(C13)=1,CHAR(CODE(C13)+1),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="34" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="32"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="2:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="32" t="str">
-        <f>CHAR(CODE(C14)+1)</f>
+      <c r="C15" s="18" t="str">
+        <f t="shared" ref="C15:C17" si="0">IF(LEN(C14)=1,CHAR(CODE(C14)+1),"A")</f>
         <v>B</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="34" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="37"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="32" t="str">
-        <f t="shared" ref="C16:C17" si="0">CHAR(CODE(C15)+1)</f>
+      <c r="C16" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="34" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="37"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="32" t="str">
+      <c r="C17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="34" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
@@ -1223,29 +1150,29 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="14" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="24"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
@@ -1258,77 +1185,73 @@
       <c r="I22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="C23" s="18" t="str">
+        <f>IF(LEN(C22)=1,CHAR(CODE(C22)+1),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="34" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="32" t="str">
-        <f>CHAR(CODE(C23)+1)</f>
+      <c r="C24" s="18" t="str">
+        <f t="shared" ref="C24:C25" si="1">IF(LEN(C23)=1,CHAR(CODE(C23)+1),"A")</f>
         <v>B</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="34" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="37"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="32" t="str">
-        <f>CHAR(CODE(C24)+1)</f>
+      <c r="C25" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="34" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="37"/>
+      <c r="J25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:J22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="B6:C6"/>
@@ -1341,20 +1264,25 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:J22"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:I17">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:I25">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F23)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/apps/skeleton/design/Test Plan/TestPlan.xlsx
+++ b/apps/skeleton/design/Test Plan/TestPlan.xlsx
@@ -425,109 +425,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -889,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,62 +855,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
@@ -987,6 +931,7 @@
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="10">
+        <f ca="1">MAX(INDIRECT("C1:C"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1000,29 +945,29 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="36"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1035,7 +980,7 @@
       <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="str">
@@ -1137,7 +1082,8 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="10">
-        <v>1</v>
+        <f ca="1">MAX(INDIRECT("C1:C"&amp;ROW()-1))+1</f>
+        <v>2</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>32</v>
@@ -1150,29 +1096,29 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="32" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1131,7 @@
       <c r="I22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="3:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C23" s="18" t="str">
@@ -1252,6 +1198,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:J22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="B6:C6"/>
@@ -1264,25 +1215,20 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:J22"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:I17">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:I25">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
